--- a/Evidencija_rada.xlsx
+++ b/Evidencija_rada.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Korisnik\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3B568A-26AA-41D6-A9B7-2385F358F00D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E71A59-D576-42B6-9FA4-33EA0B321C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ana S" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="35">
   <si>
     <t>TJEDAN</t>
   </si>
@@ -130,13 +130,25 @@
   </si>
   <si>
     <t>03.05-09.05</t>
+  </si>
+  <si>
+    <t>10.05-16.05</t>
+  </si>
+  <si>
+    <t>17.05-23.05</t>
+  </si>
+  <si>
+    <t>24.05-30.5</t>
+  </si>
+  <si>
+    <t>31.05-06.06</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -158,6 +170,11 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -561,10 +578,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -572,7 +589,7 @@
     <col min="1" max="1" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -606,8 +623,20 @@
       <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -641,8 +670,20 @@
       <c r="K2" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
@@ -656,8 +697,12 @@
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
@@ -675,8 +720,12 @@
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>14</v>
       </c>
@@ -694,8 +743,12 @@
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -709,8 +762,12 @@
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>16</v>
       </c>
@@ -724,12 +781,24 @@
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
+      <c r="H7" s="15">
+        <v>1</v>
+      </c>
+      <c r="I7" s="15">
+        <v>1</v>
+      </c>
       <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K7" s="15">
+        <v>3</v>
+      </c>
+      <c r="L7" s="15">
+        <v>2</v>
+      </c>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
@@ -741,12 +810,28 @@
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
+      <c r="H8" s="11">
+        <v>1</v>
+      </c>
+      <c r="I8" s="11">
+        <v>2</v>
+      </c>
+      <c r="J8" s="11">
+        <v>3</v>
+      </c>
       <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L8" s="11">
+        <v>1</v>
+      </c>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11">
+        <v>2</v>
+      </c>
+      <c r="O8" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>18</v>
       </c>
@@ -762,8 +847,12 @@
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>19</v>
       </c>
@@ -783,8 +872,14 @@
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L10" s="18"/>
+      <c r="M10" s="18">
+        <v>2</v>
+      </c>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>20</v>
       </c>
@@ -800,8 +895,12 @@
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
       <c r="K11" s="21"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
@@ -815,8 +914,12 @@
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>22</v>
       </c>
@@ -830,8 +933,12 @@
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>23</v>
       </c>
@@ -845,8 +952,14 @@
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>24</v>
       </c>
@@ -860,13 +973,17 @@
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="23">
-        <f t="shared" ref="B16:K16" si="0">SUM(B3:B15)</f>
+        <f t="shared" ref="B16:O16" si="0">SUM(B3:B15)</f>
         <v>6</v>
       </c>
       <c r="C16" s="23">
@@ -891,19 +1008,35 @@
       </c>
       <c r="H16" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J16" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K16" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="L16" s="23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M16" s="23">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N16" s="23">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O16" s="23">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -916,10 +1049,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -927,7 +1060,7 @@
     <col min="1" max="1" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -961,8 +1094,20 @@
       <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -996,8 +1141,20 @@
       <c r="K2" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
@@ -1011,8 +1168,12 @@
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
@@ -1030,8 +1191,12 @@
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>14</v>
       </c>
@@ -1053,8 +1218,12 @@
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -1068,8 +1237,12 @@
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>16</v>
       </c>
@@ -1087,8 +1260,12 @@
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
@@ -1106,8 +1283,12 @@
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>18</v>
       </c>
@@ -1123,8 +1304,12 @@
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>19</v>
       </c>
@@ -1140,8 +1325,12 @@
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>20</v>
       </c>
@@ -1153,12 +1342,32 @@
       <c r="G11" s="21">
         <v>1</v>
       </c>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="21">
+        <v>3</v>
+      </c>
+      <c r="I11" s="21">
+        <v>4</v>
+      </c>
+      <c r="J11" s="21">
+        <v>4</v>
+      </c>
+      <c r="K11" s="21">
+        <v>4</v>
+      </c>
+      <c r="L11" s="21">
+        <v>4</v>
+      </c>
+      <c r="M11" s="21">
+        <v>3</v>
+      </c>
+      <c r="N11" s="21">
+        <v>3</v>
+      </c>
+      <c r="O11" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
@@ -1172,8 +1381,12 @@
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>22</v>
       </c>
@@ -1187,8 +1400,14 @@
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>23</v>
       </c>
@@ -1202,8 +1421,12 @@
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>24</v>
       </c>
@@ -1217,13 +1440,17 @@
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="23">
-        <f t="shared" ref="B16:K16" si="0">SUM(B3:B15)</f>
+        <f t="shared" ref="B16:O16" si="0">SUM(B3:B15)</f>
         <v>6</v>
       </c>
       <c r="C16" s="23">
@@ -1248,19 +1475,35 @@
       </c>
       <c r="H16" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I16" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J16" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K16" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="L16" s="23">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M16" s="23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N16" s="23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O16" s="23">
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1273,10 +1516,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K1"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1284,7 +1527,7 @@
     <col min="1" max="1" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1318,8 +1561,20 @@
       <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1353,8 +1608,20 @@
       <c r="K2" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
@@ -1368,8 +1635,12 @@
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
@@ -1387,8 +1658,12 @@
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>14</v>
       </c>
@@ -1406,8 +1681,12 @@
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -1421,8 +1700,12 @@
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>16</v>
       </c>
@@ -1437,11 +1720,17 @@
       <c r="F7" s="14"/>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
+      <c r="I7" s="15">
+        <v>2</v>
+      </c>
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
@@ -1455,12 +1744,28 @@
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
+      <c r="H8" s="11">
+        <v>2</v>
+      </c>
+      <c r="I8" s="11">
+        <v>1</v>
+      </c>
       <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K8" s="11">
+        <v>3</v>
+      </c>
+      <c r="L8" s="11">
+        <v>3</v>
+      </c>
+      <c r="M8" s="11">
+        <v>1</v>
+      </c>
+      <c r="N8" s="11">
+        <v>3</v>
+      </c>
+      <c r="O8" s="11"/>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>18</v>
       </c>
@@ -1476,8 +1781,12 @@
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>19</v>
       </c>
@@ -1497,8 +1806,483 @@
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21">
+        <v>3</v>
+      </c>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21">
+        <v>2</v>
+      </c>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="23">
+        <f t="shared" ref="B16:O16" si="0">SUM(B3:B15)</f>
+        <v>6</v>
+      </c>
+      <c r="C16" s="23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D16" s="23">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E16" s="23">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F16" s="23">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G16" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H16" s="23">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I16" s="23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J16" s="23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K16" s="23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L16" s="23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M16" s="23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N16" s="23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O16" s="23">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:O16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="10">
+        <v>2</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="10">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="14">
+        <v>3</v>
+      </c>
+      <c r="C7" s="14">
+        <v>2</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15">
+        <v>2</v>
+      </c>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15">
+        <v>3</v>
+      </c>
+      <c r="K7" s="15">
+        <v>3</v>
+      </c>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15">
+        <v>2</v>
+      </c>
+      <c r="O7" s="15"/>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10">
+        <v>2</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11">
+        <v>3</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11">
+        <v>2</v>
+      </c>
+      <c r="M8" s="11">
+        <v>2</v>
+      </c>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10">
+        <v>4</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17">
+        <v>1</v>
+      </c>
+      <c r="F10" s="17">
+        <v>1</v>
+      </c>
+      <c r="G10" s="18">
+        <v>2</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>20</v>
       </c>
@@ -1512,8 +2296,12 @@
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
       <c r="K11" s="21"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
@@ -1527,8 +2315,12 @@
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>22</v>
       </c>
@@ -1542,8 +2334,12 @@
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>23</v>
       </c>
@@ -1557,8 +2353,14 @@
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>24</v>
       </c>
@@ -1572,13 +2374,17 @@
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="23">
-        <f t="shared" ref="B16:K16" si="0">SUM(B3:B15)</f>
+        <f t="shared" ref="B16:O16" si="0">SUM(B3:B15)</f>
         <v>6</v>
       </c>
       <c r="C16" s="23">
@@ -1595,27 +2401,43 @@
       </c>
       <c r="F16" s="23">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J16" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K16" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="L16" s="23">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M16" s="23">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N16" s="23">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O16" s="23">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1623,15 +2445,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1639,7 +2461,7 @@
     <col min="1" max="1" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1673,8 +2495,20 @@
       <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1708,8 +2542,20 @@
       <c r="K2" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
@@ -1723,8 +2569,12 @@
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
@@ -1742,8 +2592,12 @@
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>14</v>
       </c>
@@ -1757,14 +2611,20 @@
       <c r="E5" s="10">
         <v>1</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="10">
+        <v>1</v>
+      </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -1778,8 +2638,12 @@
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>16</v>
       </c>
@@ -1797,8 +2661,12 @@
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
@@ -1814,8 +2682,12 @@
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>18</v>
       </c>
@@ -1831,8 +2703,12 @@
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>19</v>
       </c>
@@ -1842,18 +2718,18 @@
       <c r="E10" s="17">
         <v>1</v>
       </c>
-      <c r="F10" s="17">
-        <v>1</v>
-      </c>
-      <c r="G10" s="18">
-        <v>2</v>
-      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>20</v>
       </c>
@@ -1861,14 +2737,38 @@
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="20">
+        <v>1</v>
+      </c>
+      <c r="G11" s="21">
+        <v>1</v>
+      </c>
+      <c r="H11" s="21">
+        <v>3</v>
+      </c>
+      <c r="I11" s="21">
+        <v>4</v>
+      </c>
+      <c r="J11" s="21">
+        <v>4</v>
+      </c>
+      <c r="K11" s="21">
+        <v>4</v>
+      </c>
+      <c r="L11" s="21">
+        <v>4</v>
+      </c>
+      <c r="M11" s="21">
+        <v>3</v>
+      </c>
+      <c r="N11" s="21">
+        <v>3</v>
+      </c>
+      <c r="O11" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
@@ -1882,8 +2782,12 @@
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>22</v>
       </c>
@@ -1897,8 +2801,14 @@
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>23</v>
       </c>
@@ -1912,8 +2822,12 @@
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>24</v>
       </c>
@@ -1927,8 +2841,12 @@
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>25</v>
       </c>
@@ -1950,387 +2868,47 @@
       </c>
       <c r="F16" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" s="23">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I16" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J16" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K16" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="L16" s="23">
+        <f t="shared" ref="L16:O16" si="1">SUM(L3:L15)</f>
+        <v>4</v>
+      </c>
+      <c r="M16" s="23">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="N16" s="23">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O16" s="23">
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:K16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="10">
-        <v>2</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10">
-        <v>1</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="10">
-        <v>1</v>
-      </c>
-      <c r="C5" s="10">
-        <v>1</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10">
-        <v>1</v>
-      </c>
-      <c r="F5" s="10">
-        <v>1</v>
-      </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="14">
-        <v>3</v>
-      </c>
-      <c r="C7" s="14">
-        <v>2</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10">
-        <v>2</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10">
-        <v>4</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17">
-        <v>1</v>
-      </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20">
-        <v>1</v>
-      </c>
-      <c r="G11" s="21">
-        <v>1</v>
-      </c>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="23">
-        <f t="shared" ref="B16:K16" si="0">SUM(B3:B15)</f>
-        <v>6</v>
-      </c>
-      <c r="C16" s="23">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D16" s="23">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E16" s="23">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F16" s="23">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G16" s="23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H16" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>